--- a/db_structure/000. ERP.xlsx
+++ b/db_structure/000. ERP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Purchase Quotation</t>
   </si>
@@ -215,13 +215,16 @@
   </si>
   <si>
     <t>031</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,9 +349,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,6 +401,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,20 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -579,7 +618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
@@ -595,7 +634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -603,7 +642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1">
+    <row r="5" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
@@ -611,7 +650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -619,7 +658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -627,7 +666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -638,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -646,7 +685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="1" customFormat="1">
+    <row r="11" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
@@ -654,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -662,7 +701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -670,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -678,7 +717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -689,7 +728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="1" customFormat="1">
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -697,7 +736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -705,7 +744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -713,7 +752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -721,7 +760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
@@ -729,7 +768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1">
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
@@ -737,7 +776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="1" customFormat="1">
+    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
@@ -745,8 +784,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="1" customFormat="1"/>
-    <row r="26" spans="2:4" s="1" customFormat="1">
+    <row r="24" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -757,7 +796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>18</v>
       </c>
@@ -765,7 +804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="1" customFormat="1">
+    <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
@@ -773,7 +812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
@@ -781,7 +820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -792,7 +831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
@@ -800,7 +839,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>58</v>
       </c>
@@ -808,7 +847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>59</v>
       </c>
@@ -816,7 +855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,12 +863,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/db_structure/000. ERP.xlsx
+++ b/db_structure/000. ERP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Purchase Quotation</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>031</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -595,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D38"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
@@ -871,11 +868,6 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
